--- a/WIP/files/Q07A.xlsx
+++ b/WIP/files/Q07A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990D012-1AB2-4986-B319-A4CDF7839B6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF5D891-15F2-4A3A-9D36-12A87D4EEA89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{71E531FF-C711-4B9C-BDCC-F50E60E37555}"/>
   </bookViews>
@@ -25,9 +25,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Chup Chong-Hun is of the age 17</t>
+  </si>
+  <si>
+    <t>Na Kyung-Ho is of the age 17</t>
+  </si>
+  <si>
+    <t>Sung Jae-Hwa is of the age 17</t>
+  </si>
+  <si>
+    <t>Chu Sung-Hoon is of the age 16</t>
+  </si>
+  <si>
+    <t>Yuk Chun-Yong is of the age 16</t>
+  </si>
+  <si>
+    <t>Hyon Young-Jae is of the age 15</t>
+  </si>
+  <si>
+    <t>Rim Young is of the age 14</t>
+  </si>
+  <si>
+    <t>Ryuk Jin-Hee is of the age 14</t>
+  </si>
+  <si>
+    <t>Ko Do-Hyun is of the age 14</t>
+  </si>
+  <si>
+    <t>Somun Ji-Hoon is of the age 10</t>
+  </si>
+  <si>
+    <t>Ping Tohyon is of the age 10</t>
+  </si>
+  <si>
+    <t>Pi Nam-Sun is of the age 10</t>
+  </si>
+  <si>
+    <t>Ryom Sang-Hun is of the age 9</t>
+  </si>
+  <si>
+    <t>Ping Kwang-Seon is of the age 7</t>
+  </si>
+  <si>
+    <t>Yun Dong-Jun is of the age 7</t>
+  </si>
+  <si>
+    <t>Ch'oe Ki-Nam is of the age 5</t>
+  </si>
+  <si>
+    <t>Ah Yong-Gi is of the age 5</t>
+  </si>
+  <si>
+    <t>Cha Jae-Yong is of the age 5</t>
+  </si>
+  <si>
+    <t>Maeng Yeong-Sik is of the age 4</t>
+  </si>
+  <si>
+    <t>Pang In-Ho is of the age 3</t>
+  </si>
+  <si>
+    <t>Cho Unji is of the age 1</t>
+  </si>
+  <si>
+    <t>Ma Suk-Ja is of the age 1</t>
+  </si>
+  <si>
+    <t>Sonu Yi-Hyun is of the age 1</t>
+  </si>
+  <si>
+    <t>P'i Mi-Suk is of the age 0</t>
+  </si>
+  <si>
+    <t>Nan Ye-Eun is of the age 0</t>
+  </si>
+  <si>
+    <t>Won Yoon-Hee is of the age 17</t>
+  </si>
+  <si>
+    <t>Pin Se-Eun is of the age 16</t>
+  </si>
+  <si>
+    <t>Tae Geum-Suk is of the age 16</t>
+  </si>
+  <si>
+    <t>Min Chihyon is of the age 12</t>
+  </si>
+  <si>
+    <t>Kan Yong-Hui is of the age 10</t>
+  </si>
+  <si>
+    <t>Cho Seong-Su is of the age 9</t>
+  </si>
+  <si>
+    <t>Sop Hyeon-U is of the age 9</t>
+  </si>
+  <si>
+    <t>Sok Kwang-Hyok is of the age 9</t>
+  </si>
+  <si>
+    <t>Nam Se-Yeon is of the age 8</t>
+  </si>
+  <si>
+    <t>Namgung Yeong-Jin is of the age 7</t>
+  </si>
+  <si>
+    <t>Ch'oe Hyuk is of the age 7</t>
+  </si>
+  <si>
+    <t>Son Yong-Ho is of the age 7</t>
+  </si>
+  <si>
+    <t>Ru Chuwon is of the age 7</t>
+  </si>
+  <si>
+    <t>P'o Shin is of the age 6</t>
+  </si>
+  <si>
+    <t>Ong Yo-Han is of the age 6</t>
+  </si>
+  <si>
+    <t>T'ae Doo-Na is of the age 5</t>
+  </si>
+  <si>
+    <t>Ch'ang Seung-Hyun is of the age 5</t>
+  </si>
+  <si>
+    <t>Tae Hyun-Joo is of the age 5</t>
+  </si>
+  <si>
+    <t>T'an Hee-Bon is of the age 4</t>
+  </si>
+  <si>
+    <t>Mangjol Mi-So is of the age 4</t>
+  </si>
+  <si>
+    <t>Ryang Sung-Yun is of the age 4</t>
+  </si>
+  <si>
+    <t>Chang Yoon-Ji is of the age 4</t>
+  </si>
+  <si>
+    <t>Ri Yoon-Hee is of the age 3</t>
+  </si>
+  <si>
+    <t>P'ung Chong-Hui is of the age 2</t>
+  </si>
+  <si>
+    <t>Kangjon Nam-Sun is of the age 1</t>
   </si>
 </sst>
 </file>
@@ -379,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E769EE6-FEBC-4E2E-B813-836F839494A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +540,256 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
